--- a/database/relatorio/PE 90006-2024/CSMED_PRODUTOS_MEDICO-_HOSPITALARES_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/CSMED_PRODUTOS_MEDICO-_HOSPITALARES_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 64 - CONJUNTO DRENAGEM TÓRAX (307982)</t>
+          <t>Grupo N/A - Item 64 - CONJUNTO DRENAGEM TÓRAX (307982)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 73 - ELETRODO USO MÉDICO (461243)</t>
+          <t>Grupo N/A - Item 73 - ELETRODO USO MÉDICO (461243)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 79 - ESFIGMOMANÔMETRO (432473)</t>
+          <t>Grupo N/A - Item 79 - ESFIGMOMANÔMETRO (432473)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 80 - ESFIGMOMANÔMETRO (436498)</t>
+          <t>Grupo N/A - Item 80 - ESFIGMOMANÔMETRO (436498)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 81 - ESFIGMOMANÔMETRO (432482)</t>
+          <t>Grupo N/A - Item 81 - ESFIGMOMANÔMETRO (432482)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 115 - INDICADOR BIOLÓGICO (340941)</t>
+          <t>Grupo N/A - Item 115 - INDICADOR BIOLÓGICO (340941)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 152 - SERINGA (439626)</t>
+          <t>Grupo N/A - Item 152 - SERINGA (439626)</t>
         </is>
       </c>
     </row>
